--- a/genshin/431386523805838223_2020-09-05_12-00-02.xlsx
+++ b/genshin/431386523805838223_2020-09-05_12-00-02.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -539,10 +555,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2020-12-12 02:49:09</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44177.11746527778</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
@@ -618,10 +632,8 @@
           <t>3457409957</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2020-09-08 18:34:11</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44082.77373842592</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -693,10 +705,8 @@
           <t>3457183320</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2020-09-08 18:23:09</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44082.76607638889</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -765,10 +775,8 @@
           <t>3457135026</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2020-09-08 17:01:20</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44082.70925925926</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
@@ -840,10 +848,8 @@
           <t>3457135026</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2020-09-08 16:57:33</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44082.70663194444</v>
       </c>
       <c r="I6" t="n">
         <v>1</v>
@@ -911,10 +917,8 @@
           <t>3457927805</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2020-09-08 16:55:30</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44082.70520833333</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -982,10 +986,8 @@
           <t>3457409957</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2020-09-08 16:54:52</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44082.70476851852</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1053,10 +1055,8 @@
           <t>3457135026</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2020-09-08 16:45:44</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44082.69842592593</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
@@ -1128,10 +1128,8 @@
           <t>3457299702</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2020-09-08 16:41:40</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44082.69560185185</v>
       </c>
       <c r="I10" t="n">
         <v>1</v>
@@ -1199,10 +1197,8 @@
           <t>3457262439</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2020-09-08 16:41:03</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44082.69517361111</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1270,10 +1266,8 @@
           <t>3457218424</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2020-09-08 16:40:32</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44082.69481481481</v>
       </c>
       <c r="I12" t="n">
         <v>1</v>
@@ -1341,10 +1335,8 @@
           <t>3457135026</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2020-09-08 16:40:01</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44082.69445601852</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1412,10 +1404,8 @@
           <t>3457128217</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2020-09-08 16:39:04</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44082.6937962963</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1483,10 +1473,8 @@
           <t>3457135026</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2020-09-08 16:38:32</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44082.69342592593</v>
       </c>
       <c r="I15" t="n">
         <v>1</v>
@@ -1554,10 +1542,8 @@
           <t>3457127311</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2020-09-08 16:35:57</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44082.69163194444</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1625,10 +1611,8 @@
           <t>3469305704</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2020-09-08 16:19:27</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44082.68017361111</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1696,10 +1680,8 @@
           <t>3457328625</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2020-09-08 16:02:41</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44082.66853009259</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1771,10 +1753,8 @@
           <t>3469314430</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2020-09-08 15:38:50</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44082.6519675926</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1850,10 +1830,8 @@
           <t>3457119090</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2020-09-08 15:04:24</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44082.62805555556</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1921,10 +1899,8 @@
           <t>3457119090</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2020-09-08 15:03:00</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44082.62708333333</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -1992,10 +1968,8 @@
           <t>3457127304</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2020-09-08 14:58:48</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44082.62416666667</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2063,10 +2037,8 @@
           <t>3457119090</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2020-09-08 14:58:24</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44082.62388888889</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2134,10 +2106,8 @@
           <t>3469314430</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2020-09-08 14:53:15</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44082.6203125</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2205,10 +2175,8 @@
           <t>3457127304</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2020-09-08 14:52:40</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44082.61990740741</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2284,10 +2252,8 @@
           <t>3469303649</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2020-09-08 14:50:27</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44082.61836805556</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2355,10 +2321,8 @@
           <t>3457119090</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2020-09-08 14:49:18</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44082.61756944445</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2426,10 +2390,8 @@
           <t>3469311272</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2020-09-08 14:48:59</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44082.61734953704</v>
       </c>
       <c r="I28" t="n">
         <v>1</v>
@@ -2497,10 +2459,8 @@
           <t>3469305704</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2020-09-08 14:47:52</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44082.61657407408</v>
       </c>
       <c r="I29" t="n">
         <v>1</v>
@@ -2568,10 +2528,8 @@
           <t>3457328625</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2020-09-08 14:47:07</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44082.61605324074</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2639,10 +2597,8 @@
           <t>3457293812</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2020-09-08 14:46:43</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44082.61577546296</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2710,10 +2666,8 @@
           <t>3457285134</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2020-09-08 14:45:52</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44082.61518518518</v>
       </c>
       <c r="I32" t="n">
         <v>1</v>
@@ -2781,10 +2735,8 @@
           <t>3457266043</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2020-09-08 14:43:34</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44082.61358796297</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -2852,10 +2804,8 @@
           <t>3457191252</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2020-09-08 14:43:05</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44082.61325231481</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -2923,10 +2873,8 @@
           <t>3457118864</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2020-09-08 14:36:57</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44082.60899305555</v>
       </c>
       <c r="I35" t="n">
         <v>1</v>
@@ -2998,10 +2946,8 @@
           <t>3457183320</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2020-09-08 14:29:01</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44082.60348379629</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3069,10 +3015,8 @@
           <t>3457127304</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2020-09-08 14:28:30</t>
-        </is>
+      <c r="H37" s="1" t="n">
+        <v>44082.603125</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3140,10 +3084,8 @@
           <t>3457119090</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2020-09-08 14:28:00</t>
-        </is>
+      <c r="H38" s="1" t="n">
+        <v>44082.60277777778</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3211,10 +3153,8 @@
           <t>3457118864</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2020-09-08 14:27:15</t>
-        </is>
+      <c r="H39" s="1" t="n">
+        <v>44082.60225694445</v>
       </c>
       <c r="I39" t="n">
         <v>2</v>
@@ -3282,10 +3222,8 @@
           <t>3457116555</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2020-09-08 14:26:10</t>
-        </is>
+      <c r="H40" s="1" t="n">
+        <v>44082.60150462963</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3353,10 +3291,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2020-09-07 13:36:27</t>
-        </is>
+      <c r="H41" s="1" t="n">
+        <v>44081.56697916667</v>
       </c>
       <c r="I41" t="n">
         <v>1</v>
@@ -3425,10 +3361,8 @@
           <t>3457245021</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:26:49</t>
-        </is>
+      <c r="H42" s="1" t="n">
+        <v>44081.51862268519</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3496,10 +3430,8 @@
           <t>3457245021</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2020-09-07 10:10:43</t>
-        </is>
+      <c r="H43" s="1" t="n">
+        <v>44081.42410879629</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3575,10 +3507,8 @@
           <t>3457401115</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2020-09-07 09:52:34</t>
-        </is>
+      <c r="H44" s="1" t="n">
+        <v>44081.41150462963</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -3646,10 +3576,8 @@
           <t>3463843567</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2020-09-06 22:03:37</t>
-        </is>
+      <c r="H45" s="1" t="n">
+        <v>44080.91917824074</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -3721,10 +3649,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2020-09-06 17:48:19</t>
-        </is>
+      <c r="H46" s="1" t="n">
+        <v>44080.74188657408</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -3796,10 +3722,8 @@
           <t>3457401115</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2020-09-06 17:29:57</t>
-        </is>
+      <c r="H47" s="1" t="n">
+        <v>44080.72913194444</v>
       </c>
       <c r="I47" t="n">
         <v>2</v>
@@ -3867,10 +3791,8 @@
           <t>3462714749</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2020-09-06 17:20:53</t>
-        </is>
+      <c r="H48" s="1" t="n">
+        <v>44080.72283564815</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -3934,10 +3856,8 @@
           <t>3461670278</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2020-09-06 17:15:32</t>
-        </is>
+      <c r="H49" s="1" t="n">
+        <v>44080.71912037037</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -4001,10 +3921,8 @@
           <t>3462600745</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2020-09-06 16:46:34</t>
-        </is>
+      <c r="H50" s="1" t="n">
+        <v>44080.69900462963</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -4076,10 +3994,8 @@
           <t>3462360869</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2020-09-06 15:37:40</t>
-        </is>
+      <c r="H51" s="1" t="n">
+        <v>44080.65115740741</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -4139,10 +4055,8 @@
           <t>3462274074</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2020-09-06 15:14:45</t>
-        </is>
+      <c r="H52" s="1" t="n">
+        <v>44080.63524305556</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -4206,10 +4120,8 @@
           <t>3461670278</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2020-09-06 13:57:03</t>
-        </is>
+      <c r="H53" s="1" t="n">
+        <v>44080.58128472222</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -4285,10 +4197,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2020-09-06 13:42:46</t>
-        </is>
+      <c r="H54" s="1" t="n">
+        <v>44080.57136574074</v>
       </c>
       <c r="I54" t="n">
         <v>1</v>
@@ -4356,10 +4266,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2020-09-06 13:38:23</t>
-        </is>
+      <c r="H55" s="1" t="n">
+        <v>44080.56832175926</v>
       </c>
       <c r="I55" t="n">
         <v>2</v>
@@ -4435,10 +4343,8 @@
           <t>3461670278</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2020-09-06 13:26:21</t>
-        </is>
+      <c r="H56" s="1" t="n">
+        <v>44080.55996527777</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -4511,10 +4417,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2020-09-06 12:53:16</t>
-        </is>
+      <c r="H57" s="1" t="n">
+        <v>44080.53699074074</v>
       </c>
       <c r="I57" t="n">
         <v>2</v>
@@ -4590,10 +4494,8 @@
           <t>3461670278</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2020-09-06 12:49:31</t>
-        </is>
+      <c r="H58" s="1" t="n">
+        <v>44080.53438657407</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -4658,10 +4560,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2020-09-06 12:40:36</t>
-        </is>
+      <c r="H59" s="1" t="n">
+        <v>44080.52819444444</v>
       </c>
       <c r="I59" t="n">
         <v>3</v>
@@ -4733,10 +4633,8 @@
           <t>3461670278</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2020-09-06 12:33:51</t>
-        </is>
+      <c r="H60" s="1" t="n">
+        <v>44080.52350694445</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -4808,10 +4706,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2020-09-06 12:17:15</t>
-        </is>
+      <c r="H61" s="1" t="n">
+        <v>44080.51197916667</v>
       </c>
       <c r="I61" t="n">
         <v>2</v>
@@ -4888,10 +4784,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2020-09-06 12:11:35</t>
-        </is>
+      <c r="H62" s="1" t="n">
+        <v>44080.50804398148</v>
       </c>
       <c r="I62" t="n">
         <v>2</v>
@@ -4967,10 +4861,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2020-09-06 12:10:22</t>
-        </is>
+      <c r="H63" s="1" t="n">
+        <v>44080.50719907408</v>
       </c>
       <c r="I63" t="n">
         <v>3</v>
@@ -5034,10 +4926,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2020-09-06 11:51:36</t>
-        </is>
+      <c r="H64" s="1" t="n">
+        <v>44080.49416666666</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -5105,10 +4995,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2020-09-06 11:49:10</t>
-        </is>
+      <c r="H65" s="1" t="n">
+        <v>44080.49247685185</v>
       </c>
       <c r="I65" t="n">
         <v>4</v>
@@ -5185,10 +5073,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2020-09-06 11:43:12</t>
-        </is>
+      <c r="H66" s="1" t="n">
+        <v>44080.48833333333</v>
       </c>
       <c r="I66" t="n">
         <v>6</v>
@@ -5265,10 +5151,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2020-09-06 11:41:48</t>
-        </is>
+      <c r="H67" s="1" t="n">
+        <v>44080.48736111111</v>
       </c>
       <c r="I67" t="n">
         <v>5</v>
@@ -5332,10 +5216,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2020-09-06 11:38:04</t>
-        </is>
+      <c r="H68" s="1" t="n">
+        <v>44080.48476851852</v>
       </c>
       <c r="I68" t="n">
         <v>5</v>
@@ -5403,10 +5285,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2020-09-06 11:33:57</t>
-        </is>
+      <c r="H69" s="1" t="n">
+        <v>44080.48190972222</v>
       </c>
       <c r="I69" t="n">
         <v>13</v>
@@ -5478,10 +5358,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2020-09-06 11:16:20</t>
-        </is>
+      <c r="H70" s="1" t="n">
+        <v>44080.46967592592</v>
       </c>
       <c r="I70" t="n">
         <v>25</v>
@@ -5557,10 +5435,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2020-09-06 09:34:20</t>
-        </is>
+      <c r="H71" s="1" t="n">
+        <v>44080.39884259259</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
@@ -5625,10 +5501,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2020-09-06 09:27:51</t>
-        </is>
+      <c r="H72" s="1" t="n">
+        <v>44080.39434027778</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
@@ -5692,10 +5566,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2020-09-06 09:27:27</t>
-        </is>
+      <c r="H73" s="1" t="n">
+        <v>44080.3940625</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
@@ -5759,10 +5631,8 @@
           <t>3460966285</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2020-09-06 09:23:10</t>
-        </is>
+      <c r="H74" s="1" t="n">
+        <v>44080.39108796296</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
@@ -5830,10 +5700,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2020-09-06 07:45:06</t>
-        </is>
+      <c r="H75" s="1" t="n">
+        <v>44080.32298611111</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
@@ -5901,10 +5769,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2020-09-06 07:40:02</t>
-        </is>
+      <c r="H76" s="1" t="n">
+        <v>44080.31946759259</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
@@ -5976,10 +5842,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2020-09-06 05:54:07</t>
-        </is>
+      <c r="H77" s="1" t="n">
+        <v>44080.24591435185</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
@@ -6055,10 +5919,8 @@
           <t>3460597103</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2020-09-06 05:26:04</t>
-        </is>
+      <c r="H78" s="1" t="n">
+        <v>44080.22643518518</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
@@ -6132,10 +5994,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2020-09-06 02:39:57</t>
-        </is>
+      <c r="H79" s="1" t="n">
+        <v>44080.11107638889</v>
       </c>
       <c r="I79" t="n">
         <v>1</v>
@@ -6211,10 +6071,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2020-09-05 23:57:18</t>
-        </is>
+      <c r="H80" s="1" t="n">
+        <v>44079.998125</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
@@ -6274,10 +6132,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2020-09-05 23:29:40</t>
-        </is>
+      <c r="H81" s="1" t="n">
+        <v>44079.97893518519</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
@@ -6345,10 +6201,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2020-09-05 23:19:59</t>
-        </is>
+      <c r="H82" s="1" t="n">
+        <v>44079.97221064815</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
@@ -6424,10 +6278,8 @@
           <t>3459895375</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2020-09-05 23:16:19</t>
-        </is>
+      <c r="H83" s="1" t="n">
+        <v>44079.96966435185</v>
       </c>
       <c r="I83" t="n">
         <v>2</v>
@@ -6491,10 +6343,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2020-09-05 22:57:04</t>
-        </is>
+      <c r="H84" s="1" t="n">
+        <v>44079.9562962963</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
@@ -6558,10 +6408,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2020-09-05 22:52:34</t>
-        </is>
+      <c r="H85" s="1" t="n">
+        <v>44079.9531712963</v>
       </c>
       <c r="I85" t="n">
         <v>2</v>
@@ -6625,10 +6473,8 @@
           <t>3457362022</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2020-09-05 22:26:14</t>
-        </is>
+      <c r="H86" s="1" t="n">
+        <v>44079.93488425926</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
@@ -6696,10 +6542,8 @@
           <t>3457362022</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2020-09-05 22:21:40</t>
-        </is>
+      <c r="H87" s="1" t="n">
+        <v>44079.93171296296</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
@@ -6763,10 +6607,8 @@
           <t>3457137880</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2020-09-05 22:10:25</t>
-        </is>
+      <c r="H88" s="1" t="n">
+        <v>44079.92390046296</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
@@ -6834,10 +6676,8 @@
           <t>3459395309</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>2020-09-05 21:47:22</t>
-        </is>
+      <c r="H89" s="1" t="n">
+        <v>44079.90789351852</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
@@ -6909,10 +6749,8 @@
           <t>3459395309</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>2020-09-05 21:44:31</t>
-        </is>
+      <c r="H90" s="1" t="n">
+        <v>44079.90591435185</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
@@ -6980,10 +6818,8 @@
           <t>3457137880</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>2020-09-05 21:40:00</t>
-        </is>
+      <c r="H91" s="1" t="n">
+        <v>44079.90277777778</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
@@ -7059,10 +6895,8 @@
           <t>3459395309</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>2020-09-05 21:34:24</t>
-        </is>
+      <c r="H92" s="1" t="n">
+        <v>44079.89888888889</v>
       </c>
       <c r="I92" t="n">
         <v>1</v>
@@ -7134,10 +6968,8 @@
           <t>3457137880</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>2020-09-05 20:14:04</t>
-        </is>
+      <c r="H93" s="1" t="n">
+        <v>44079.84310185185</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
@@ -7205,10 +7037,8 @@
           <t>3459022636</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>2020-09-05 20:13:11</t>
-        </is>
+      <c r="H94" s="1" t="n">
+        <v>44079.84248842593</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
@@ -7284,10 +7114,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>2020-09-05 19:40:03</t>
-        </is>
+      <c r="H95" s="1" t="n">
+        <v>44079.81947916667</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
@@ -7355,10 +7183,8 @@
           <t>3457245021</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>2020-09-05 19:30:49</t>
-        </is>
+      <c r="H96" s="1" t="n">
+        <v>44079.81306712963</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
@@ -7426,10 +7252,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>2020-09-05 19:12:35</t>
-        </is>
+      <c r="H97" s="1" t="n">
+        <v>44079.8004050926</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
@@ -7501,10 +7325,8 @@
           <t>3457183320</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>2020-09-05 19:02:49</t>
-        </is>
+      <c r="H98" s="1" t="n">
+        <v>44079.79362268518</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
@@ -7572,10 +7394,8 @@
           <t>3457790328</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>2020-09-05 19:01:44</t>
-        </is>
+      <c r="H99" s="1" t="n">
+        <v>44079.79287037037</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
@@ -7643,10 +7463,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>2020-09-05 19:01:25</t>
-        </is>
+      <c r="H100" s="1" t="n">
+        <v>44079.79265046296</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
@@ -7714,10 +7532,8 @@
           <t>3457164067</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>2020-09-05 18:35:19</t>
-        </is>
+      <c r="H101" s="1" t="n">
+        <v>44079.77452546296</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
@@ -7793,10 +7609,8 @@
           <t>3457452290</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>2020-09-05 18:30:17</t>
-        </is>
+      <c r="H102" s="1" t="n">
+        <v>44079.77103009259</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
@@ -7872,10 +7686,8 @@
           <t>3457790328</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>2020-09-05 18:28:34</t>
-        </is>
+      <c r="H103" s="1" t="n">
+        <v>44079.76983796297</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
@@ -7939,10 +7751,8 @@
           <t>3457119593</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>2020-09-05 18:27:42</t>
-        </is>
+      <c r="H104" s="1" t="n">
+        <v>44079.76923611111</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
@@ -8018,10 +7828,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>2020-09-05 18:22:44</t>
-        </is>
+      <c r="H105" s="1" t="n">
+        <v>44079.76578703704</v>
       </c>
       <c r="I105" t="n">
         <v>1</v>
@@ -8097,10 +7905,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>2020-09-05 18:21:14</t>
-        </is>
+      <c r="H106" s="1" t="n">
+        <v>44079.76474537037</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
@@ -8172,10 +7978,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>2020-09-05 18:03:44</t>
-        </is>
+      <c r="H107" s="1" t="n">
+        <v>44079.75259259259</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
@@ -8251,10 +8055,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>2020-09-05 17:53:20</t>
-        </is>
+      <c r="H108" s="1" t="n">
+        <v>44079.74537037037</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
@@ -8314,10 +8116,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>2020-09-05 17:49:39</t>
-        </is>
+      <c r="H109" s="1" t="n">
+        <v>44079.7428125</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
@@ -8381,10 +8181,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>2020-09-05 17:35:34</t>
-        </is>
+      <c r="H110" s="1" t="n">
+        <v>44079.73303240741</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
@@ -8448,10 +8246,8 @@
           <t>3458152720</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>2020-09-05 17:26:05</t>
-        </is>
+      <c r="H111" s="1" t="n">
+        <v>44079.72644675926</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
@@ -8519,10 +8315,8 @@
           <t>3458274679</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>2020-09-05 17:22:39</t>
-        </is>
+      <c r="H112" s="1" t="n">
+        <v>44079.7240625</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
@@ -8590,10 +8384,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>2020-09-05 17:21:31</t>
-        </is>
+      <c r="H113" s="1" t="n">
+        <v>44079.72327546297</v>
       </c>
       <c r="I113" t="n">
         <v>1</v>
@@ -8653,10 +8445,8 @@
           <t>3457152466</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>2020-09-05 17:18:10</t>
-        </is>
+      <c r="H114" s="1" t="n">
+        <v>44079.72094907407</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
@@ -8724,10 +8514,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>2020-09-05 17:05:59</t>
-        </is>
+      <c r="H115" s="1" t="n">
+        <v>44079.71248842592</v>
       </c>
       <c r="I115" t="n">
         <v>1</v>
@@ -8803,10 +8591,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>2020-09-05 17:03:11</t>
-        </is>
+      <c r="H116" s="1" t="n">
+        <v>44079.71054398148</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
@@ -8874,10 +8660,8 @@
           <t>3457165508</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>2020-09-05 16:58:38</t>
-        </is>
+      <c r="H117" s="1" t="n">
+        <v>44079.70738425926</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
@@ -8941,10 +8725,8 @@
           <t>3458174426</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>2020-09-05 16:58:10</t>
-        </is>
+      <c r="H118" s="1" t="n">
+        <v>44079.70706018519</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
@@ -9016,10 +8798,8 @@
           <t>3458152720</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>2020-09-05 16:50:00</t>
-        </is>
+      <c r="H119" s="1" t="n">
+        <v>44079.70138888889</v>
       </c>
       <c r="I119" t="n">
         <v>3</v>
@@ -9091,10 +8871,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>2020-09-05 16:45:45</t>
-        </is>
+      <c r="H120" s="1" t="n">
+        <v>44079.6984375</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
@@ -9154,10 +8932,8 @@
           <t>3457152466</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>2020-09-05 16:38:29</t>
-        </is>
+      <c r="H121" s="1" t="n">
+        <v>44079.69339120371</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
@@ -9221,10 +8997,8 @@
           <t>3457164067</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>2020-09-05 16:37:18</t>
-        </is>
+      <c r="H122" s="1" t="n">
+        <v>44079.69256944444</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
@@ -9288,10 +9062,8 @@
           <t>3458102841</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>2020-09-05 16:36:44</t>
-        </is>
+      <c r="H123" s="1" t="n">
+        <v>44079.69217592593</v>
       </c>
       <c r="I123" t="n">
         <v>1</v>
@@ -9359,10 +9131,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>2020-09-05 16:28:24</t>
-        </is>
+      <c r="H124" s="1" t="n">
+        <v>44079.68638888889</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
@@ -9434,10 +9204,8 @@
           <t>3457152466</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>2020-09-05 16:25:05</t>
-        </is>
+      <c r="H125" s="1" t="n">
+        <v>44079.68408564815</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
@@ -9513,10 +9281,8 @@
           <t>3457314734</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>2020-09-05 16:23:42</t>
-        </is>
+      <c r="H126" s="1" t="n">
+        <v>44079.683125</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
@@ -9592,10 +9358,8 @@
           <t>3457401115</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>2020-09-05 16:14:04</t>
-        </is>
+      <c r="H127" s="1" t="n">
+        <v>44079.67643518518</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
@@ -9667,10 +9431,8 @@
           <t>3457152466</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>2020-09-05 16:11:55</t>
-        </is>
+      <c r="H128" s="1" t="n">
+        <v>44079.67494212963</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
@@ -9734,10 +9496,8 @@
           <t>3457119593</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>2020-09-05 16:06:17</t>
-        </is>
+      <c r="H129" s="1" t="n">
+        <v>44079.67103009259</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
@@ -9809,10 +9569,8 @@
           <t>3457164067</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>2020-09-05 16:04:39</t>
-        </is>
+      <c r="H130" s="1" t="n">
+        <v>44079.66989583334</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
@@ -9884,10 +9642,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>2020-09-05 15:55:36</t>
-        </is>
+      <c r="H131" s="1" t="n">
+        <v>44079.66361111111</v>
       </c>
       <c r="I131" t="n">
         <v>2</v>
@@ -9955,10 +9711,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>2020-09-05 15:52:49</t>
-        </is>
+      <c r="H132" s="1" t="n">
+        <v>44079.66167824074</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
@@ -10026,10 +9780,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>2020-09-05 15:52:03</t>
-        </is>
+      <c r="H133" s="1" t="n">
+        <v>44079.66114583334</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
@@ -10105,10 +9857,8 @@
           <t>3457927805</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>2020-09-05 15:44:56</t>
-        </is>
+      <c r="H134" s="1" t="n">
+        <v>44079.6562037037</v>
       </c>
       <c r="I134" t="n">
         <v>1</v>
@@ -10176,10 +9926,8 @@
           <t>3457894035</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>2020-09-05 15:43:58</t>
-        </is>
+      <c r="H135" s="1" t="n">
+        <v>44079.65553240741</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
@@ -10255,10 +10003,8 @@
           <t>3457823463</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>2020-09-05 15:43:35</t>
-        </is>
+      <c r="H136" s="1" t="n">
+        <v>44079.65526620371</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
@@ -10334,10 +10080,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>2020-09-05 15:38:30</t>
-        </is>
+      <c r="H137" s="1" t="n">
+        <v>44079.65173611111</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
@@ -10409,10 +10153,8 @@
           <t>3457894035</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>2020-09-05 15:35:02</t>
-        </is>
+      <c r="H138" s="1" t="n">
+        <v>44079.6493287037</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
@@ -10480,10 +10222,8 @@
           <t>3457893166</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>2020-09-05 15:34:15</t>
-        </is>
+      <c r="H139" s="1" t="n">
+        <v>44079.64878472222</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
@@ -10551,10 +10291,8 @@
           <t>3457137880</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>2020-09-05 15:32:13</t>
-        </is>
+      <c r="H140" s="1" t="n">
+        <v>44079.64737268518</v>
       </c>
       <c r="I140" t="n">
         <v>1</v>
@@ -10622,10 +10360,8 @@
           <t>3457823463</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>2020-09-05 15:12:27</t>
-        </is>
+      <c r="H141" s="1" t="n">
+        <v>44079.63364583333</v>
       </c>
       <c r="I141" t="n">
         <v>2</v>
@@ -10689,10 +10425,8 @@
           <t>3457820734</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>2020-09-05 15:09:47</t>
-        </is>
+      <c r="H142" s="1" t="n">
+        <v>44079.63179398148</v>
       </c>
       <c r="I142" t="n">
         <v>1</v>
@@ -10764,10 +10498,8 @@
           <t>3457118864</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>2020-09-05 15:07:46</t>
-        </is>
+      <c r="H143" s="1" t="n">
+        <v>44079.63039351852</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
@@ -10787,9 +10519,10 @@
           <t>男</t>
         </is>
       </c>
-      <c r="M143">
-        <f>x\'2</f>
-        <v/>
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>=x\'2</t>
+        </is>
       </c>
       <c r="N143" t="n">
         <v>5</v>
@@ -10838,10 +10571,8 @@
           <t>3457401115</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>2020-09-05 15:05:09</t>
-        </is>
+      <c r="H144" s="1" t="n">
+        <v>44079.62857638889</v>
       </c>
       <c r="I144" t="n">
         <v>3</v>
@@ -10909,10 +10640,8 @@
           <t>3457790328</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>2020-09-05 14:59:55</t>
-        </is>
+      <c r="H145" s="1" t="n">
+        <v>44079.62494212963</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
@@ -10980,10 +10709,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>2020-09-05 14:59:15</t>
-        </is>
+      <c r="H146" s="1" t="n">
+        <v>44079.62447916667</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
@@ -11051,10 +10778,8 @@
           <t>3457401115</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>2020-09-05 14:55:05</t>
-        </is>
+      <c r="H147" s="1" t="n">
+        <v>44079.62158564815</v>
       </c>
       <c r="I147" t="n">
         <v>2</v>
@@ -11122,10 +10847,8 @@
           <t>3457314734</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>2020-09-05 14:46:10</t>
-        </is>
+      <c r="H148" s="1" t="n">
+        <v>44079.61539351852</v>
       </c>
       <c r="I148" t="n">
         <v>1</v>
@@ -11189,10 +10912,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>2020-09-05 14:43:07</t>
-        </is>
+      <c r="H149" s="1" t="n">
+        <v>44079.61327546297</v>
       </c>
       <c r="I149" t="n">
         <v>3</v>
@@ -11261,10 +10982,8 @@
           <t>3457312667</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>2020-09-05 14:42:31</t>
-        </is>
+      <c r="H150" s="1" t="n">
+        <v>44079.6128587963</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
@@ -11332,10 +11051,8 @@
           <t>3457401115</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>2020-09-05 14:40:27</t>
-        </is>
+      <c r="H151" s="1" t="n">
+        <v>44079.61142361111</v>
       </c>
       <c r="I151" t="n">
         <v>1</v>
@@ -11403,10 +11120,8 @@
           <t>3457245021</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>2020-09-05 14:36:42</t>
-        </is>
+      <c r="H152" s="1" t="n">
+        <v>44079.60881944445</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
@@ -11482,10 +11197,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>2020-09-05 14:34:35</t>
-        </is>
+      <c r="H153" s="1" t="n">
+        <v>44079.60734953704</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
@@ -11553,10 +11266,8 @@
           <t>3457245021</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>2020-09-05 14:34:13</t>
-        </is>
+      <c r="H154" s="1" t="n">
+        <v>44079.60709490741</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
@@ -11628,10 +11339,8 @@
           <t>3457677334</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>2020-09-05 14:26:01</t>
-        </is>
+      <c r="H155" s="1" t="n">
+        <v>44079.60140046296</v>
       </c>
       <c r="I155" t="n">
         <v>3</v>
@@ -11695,10 +11404,8 @@
           <t>3457542433</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>2020-09-05 14:24:51</t>
-        </is>
+      <c r="H156" s="1" t="n">
+        <v>44079.60059027778</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
@@ -11774,10 +11481,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>2020-09-05 14:21:16</t>
-        </is>
+      <c r="H157" s="1" t="n">
+        <v>44079.59810185185</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
@@ -11849,10 +11554,8 @@
           <t>3457202858</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>2020-09-05 14:19:07</t>
-        </is>
+      <c r="H158" s="1" t="n">
+        <v>44079.5966087963</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
@@ -11916,10 +11619,8 @@
           <t>3457650777</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>2020-09-05 14:17:39</t>
-        </is>
+      <c r="H159" s="1" t="n">
+        <v>44079.59559027778</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
@@ -11991,10 +11692,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>2020-09-05 14:16:43</t>
-        </is>
+      <c r="H160" s="1" t="n">
+        <v>44079.59494212963</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
@@ -12066,10 +11765,8 @@
           <t>3457643038</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>2020-09-05 14:15:12</t>
-        </is>
+      <c r="H161" s="1" t="n">
+        <v>44079.59388888889</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
@@ -12133,10 +11830,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>2020-09-05 14:11:14</t>
-        </is>
+      <c r="H162" s="1" t="n">
+        <v>44079.59113425926</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
@@ -12212,10 +11907,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>2020-09-05 14:10:10</t>
-        </is>
+      <c r="H163" s="1" t="n">
+        <v>44079.59039351852</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
@@ -12291,10 +11984,8 @@
           <t>3457137880</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>2020-09-05 14:09:41</t>
-        </is>
+      <c r="H164" s="1" t="n">
+        <v>44079.59005787037</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
@@ -12358,10 +12049,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>2020-09-05 14:09:37</t>
-        </is>
+      <c r="H165" s="1" t="n">
+        <v>44079.59001157407</v>
       </c>
       <c r="I165" t="n">
         <v>1</v>
@@ -12437,10 +12126,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>2020-09-05 14:08:39</t>
-        </is>
+      <c r="H166" s="1" t="n">
+        <v>44079.58934027778</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
@@ -12500,10 +12187,8 @@
           <t>3457617646</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>2020-09-05 14:08:33</t>
-        </is>
+      <c r="H167" s="1" t="n">
+        <v>44079.58927083333</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
@@ -12579,10 +12264,8 @@
           <t>3457606814</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>2020-09-05 14:05:08</t>
-        </is>
+      <c r="H168" s="1" t="n">
+        <v>44079.58689814815</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
@@ -12654,10 +12337,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>2020-09-05 13:58:13</t>
-        </is>
+      <c r="H169" s="1" t="n">
+        <v>44079.5820949074</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
@@ -12729,10 +12410,8 @@
           <t>3457245021</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>2020-09-05 13:57:42</t>
-        </is>
+      <c r="H170" s="1" t="n">
+        <v>44079.58173611111</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
@@ -12808,10 +12487,8 @@
           <t>3457575794</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>2020-09-05 13:55:39</t>
-        </is>
+      <c r="H171" s="1" t="n">
+        <v>44079.5803125</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
@@ -12875,10 +12552,8 @@
           <t>3457553675</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>2020-09-05 13:49:43</t>
-        </is>
+      <c r="H172" s="1" t="n">
+        <v>44079.57619212963</v>
       </c>
       <c r="I172" t="n">
         <v>0</v>
@@ -12942,10 +12617,8 @@
           <t>3457552814</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>2020-09-05 13:49:03</t>
-        </is>
+      <c r="H173" s="1" t="n">
+        <v>44079.57572916667</v>
       </c>
       <c r="I173" t="n">
         <v>5</v>
@@ -13021,10 +12694,8 @@
           <t>3457362022</t>
         </is>
       </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>2020-09-05 13:33:26</t>
-        </is>
+      <c r="H174" s="1" t="n">
+        <v>44079.56488425926</v>
       </c>
       <c r="I174" t="n">
         <v>0</v>
@@ -13088,10 +12759,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>2020-09-05 13:32:17</t>
-        </is>
+      <c r="H175" s="1" t="n">
+        <v>44079.56408564815</v>
       </c>
       <c r="I175" t="n">
         <v>2</v>
@@ -13163,10 +12832,8 @@
           <t>3457152466</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>2020-09-05 13:31:47</t>
-        </is>
+      <c r="H176" s="1" t="n">
+        <v>44079.56373842592</v>
       </c>
       <c r="I176" t="n">
         <v>0</v>
@@ -13230,10 +12897,8 @@
           <t>3457389243</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>2020-09-05 13:31:07</t>
-        </is>
+      <c r="H177" s="1" t="n">
+        <v>44079.56327546296</v>
       </c>
       <c r="I177" t="n">
         <v>0</v>
@@ -13301,10 +12966,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>2020-09-05 13:28:34</t>
-        </is>
+      <c r="H178" s="1" t="n">
+        <v>44079.56150462963</v>
       </c>
       <c r="I178" t="n">
         <v>7</v>
@@ -13368,10 +13031,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>2020-09-05 13:27:53</t>
-        </is>
+      <c r="H179" s="1" t="n">
+        <v>44079.56103009259</v>
       </c>
       <c r="I179" t="n">
         <v>4</v>
@@ -13435,10 +13096,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>2020-09-05 13:25:38</t>
-        </is>
+      <c r="H180" s="1" t="n">
+        <v>44079.55946759259</v>
       </c>
       <c r="I180" t="n">
         <v>0</v>
@@ -13502,10 +13161,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>2020-09-05 13:25:20</t>
-        </is>
+      <c r="H181" s="1" t="n">
+        <v>44079.55925925926</v>
       </c>
       <c r="I181" t="n">
         <v>0</v>
@@ -13577,10 +13234,8 @@
           <t>3457462680</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>2020-09-05 13:24:48</t>
-        </is>
+      <c r="H182" s="1" t="n">
+        <v>44079.55888888889</v>
       </c>
       <c r="I182" t="n">
         <v>0</v>
@@ -13648,10 +13303,8 @@
           <t>3457452290</t>
         </is>
       </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>2020-09-05 13:23:45</t>
-        </is>
+      <c r="H183" s="1" t="n">
+        <v>44079.55815972222</v>
       </c>
       <c r="I183" t="n">
         <v>1</v>
@@ -13723,10 +13376,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>2020-09-05 13:17:13</t>
-        </is>
+      <c r="H184" s="1" t="n">
+        <v>44079.55362268518</v>
       </c>
       <c r="I184" t="n">
         <v>3</v>
@@ -13798,10 +13449,8 @@
           <t>3457137880</t>
         </is>
       </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>2020-09-05 13:17:09</t>
-        </is>
+      <c r="H185" s="1" t="n">
+        <v>44079.55357638889</v>
       </c>
       <c r="I185" t="n">
         <v>0</v>
@@ -13873,10 +13522,8 @@
           <t>3457409957</t>
         </is>
       </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>2020-09-05 13:14:49</t>
-        </is>
+      <c r="H186" s="1" t="n">
+        <v>44079.55195601852</v>
       </c>
       <c r="I186" t="n">
         <v>0</v>
@@ -13948,10 +13595,8 @@
           <t>3457164067</t>
         </is>
       </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>2020-09-05 13:12:42</t>
-        </is>
+      <c r="H187" s="1" t="n">
+        <v>44079.55048611111</v>
       </c>
       <c r="I187" t="n">
         <v>0</v>
@@ -14019,10 +13664,8 @@
           <t>3457137880</t>
         </is>
       </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>2020-09-05 13:11:27</t>
-        </is>
+      <c r="H188" s="1" t="n">
+        <v>44079.54961805556</v>
       </c>
       <c r="I188" t="n">
         <v>1</v>
@@ -14094,10 +13737,8 @@
           <t>3457394612</t>
         </is>
       </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>2020-09-05 13:10:48</t>
-        </is>
+      <c r="H189" s="1" t="n">
+        <v>44079.54916666666</v>
       </c>
       <c r="I189" t="n">
         <v>0</v>
@@ -14166,10 +13807,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>2020-09-05 13:09:34</t>
-        </is>
+      <c r="H190" s="1" t="n">
+        <v>44079.54831018519</v>
       </c>
       <c r="I190" t="n">
         <v>0</v>
@@ -14234,10 +13873,8 @@
           <t>3457401190</t>
         </is>
       </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>2020-09-05 13:08:41</t>
-        </is>
+      <c r="H191" s="1" t="n">
+        <v>44079.54769675926</v>
       </c>
       <c r="I191" t="n">
         <v>20</v>
@@ -14309,10 +13946,8 @@
           <t>3457401115</t>
         </is>
       </c>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>2020-09-05 13:08:38</t>
-        </is>
+      <c r="H192" s="1" t="n">
+        <v>44079.54766203704</v>
       </c>
       <c r="I192" t="n">
         <v>2</v>
@@ -14388,10 +14023,8 @@
           <t>3457273443</t>
         </is>
       </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>2020-09-05 13:08:25</t>
-        </is>
+      <c r="H193" s="1" t="n">
+        <v>44079.54751157408</v>
       </c>
       <c r="I193" t="n">
         <v>0</v>
@@ -14467,10 +14100,8 @@
           <t>3457165508</t>
         </is>
       </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>2020-09-05 13:08:09</t>
-        </is>
+      <c r="H194" s="1" t="n">
+        <v>44079.54732638889</v>
       </c>
       <c r="I194" t="n">
         <v>0</v>
@@ -14546,10 +14177,8 @@
           <t>3457389243</t>
         </is>
       </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>2020-09-05 13:07:15</t>
-        </is>
+      <c r="H195" s="1" t="n">
+        <v>44079.54670138889</v>
       </c>
       <c r="I195" t="n">
         <v>0</v>
@@ -14625,10 +14254,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>2020-09-05 13:05:57</t>
-        </is>
+      <c r="H196" s="1" t="n">
+        <v>44079.54579861111</v>
       </c>
       <c r="I196" t="n">
         <v>0</v>
@@ -14700,10 +14327,8 @@
           <t>3457362022</t>
         </is>
       </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>2020-09-05 13:05:26</t>
-        </is>
+      <c r="H197" s="1" t="n">
+        <v>44079.54543981481</v>
       </c>
       <c r="I197" t="n">
         <v>2</v>
@@ -14771,10 +14396,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>2020-09-05 13:01:25</t>
-        </is>
+      <c r="H198" s="1" t="n">
+        <v>44079.54265046296</v>
       </c>
       <c r="I198" t="n">
         <v>0</v>
@@ -14846,10 +14469,8 @@
           <t>3457362022</t>
         </is>
       </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>2020-09-05 13:01:23</t>
-        </is>
+      <c r="H199" s="1" t="n">
+        <v>44079.54262731481</v>
       </c>
       <c r="I199" t="n">
         <v>16</v>
@@ -14925,10 +14546,8 @@
           <t>3457138977</t>
         </is>
       </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:59:33</t>
-        </is>
+      <c r="H200" s="1" t="n">
+        <v>44079.54135416666</v>
       </c>
       <c r="I200" t="n">
         <v>0</v>
@@ -15004,10 +14623,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:59:30</t>
-        </is>
+      <c r="H201" s="1" t="n">
+        <v>44079.54131944444</v>
       </c>
       <c r="I201" t="n">
         <v>0</v>
@@ -15079,10 +14696,8 @@
           <t>3457201090</t>
         </is>
       </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:58:21</t>
-        </is>
+      <c r="H202" s="1" t="n">
+        <v>44079.54052083333</v>
       </c>
       <c r="I202" t="n">
         <v>3</v>
@@ -15154,10 +14769,8 @@
           <t>3457138977</t>
         </is>
       </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:58:10</t>
-        </is>
+      <c r="H203" s="1" t="n">
+        <v>44079.54039351852</v>
       </c>
       <c r="I203" t="n">
         <v>0</v>
@@ -15233,10 +14846,8 @@
           <t>3457201090</t>
         </is>
       </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:58:09</t>
-        </is>
+      <c r="H204" s="1" t="n">
+        <v>44079.54038194445</v>
       </c>
       <c r="I204" t="n">
         <v>23</v>
@@ -15300,10 +14911,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:57:32</t>
-        </is>
+      <c r="H205" s="1" t="n">
+        <v>44079.5399537037</v>
       </c>
       <c r="I205" t="n">
         <v>0</v>
@@ -15375,10 +14984,8 @@
           <t>3457138977</t>
         </is>
       </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:56:52</t>
-        </is>
+      <c r="H206" s="1" t="n">
+        <v>44079.53949074074</v>
       </c>
       <c r="I206" t="n">
         <v>0</v>
@@ -15450,10 +15057,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:56:03</t>
-        </is>
+      <c r="H207" s="1" t="n">
+        <v>44079.53892361111</v>
       </c>
       <c r="I207" t="n">
         <v>0</v>
@@ -15529,10 +15134,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:54:40</t>
-        </is>
+      <c r="H208" s="1" t="n">
+        <v>44079.53796296296</v>
       </c>
       <c r="I208" t="n">
         <v>0</v>
@@ -15596,10 +15199,8 @@
           <t>3457340332</t>
         </is>
       </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:53:36</t>
-        </is>
+      <c r="H209" s="1" t="n">
+        <v>44079.53722222222</v>
       </c>
       <c r="I209" t="n">
         <v>0</v>
@@ -15675,10 +15276,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:53:18</t>
-        </is>
+      <c r="H210" s="1" t="n">
+        <v>44079.53701388889</v>
       </c>
       <c r="I210" t="n">
         <v>0</v>
@@ -15750,10 +15349,8 @@
           <t>3457328733</t>
         </is>
       </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:52:27</t>
-        </is>
+      <c r="H211" s="1" t="n">
+        <v>44079.53642361111</v>
       </c>
       <c r="I211" t="n">
         <v>0</v>
@@ -15829,10 +15426,8 @@
           <t>3457328625</t>
         </is>
       </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:52:22</t>
-        </is>
+      <c r="H212" s="1" t="n">
+        <v>44079.53636574074</v>
       </c>
       <c r="I212" t="n">
         <v>4</v>
@@ -15904,10 +15499,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:49:38</t>
-        </is>
+      <c r="H213" s="1" t="n">
+        <v>44079.5344675926</v>
       </c>
       <c r="I213" t="n">
         <v>0</v>
@@ -15979,10 +15572,8 @@
           <t>3457314734</t>
         </is>
       </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:49:34</t>
-        </is>
+      <c r="H214" s="1" t="n">
+        <v>44079.5344212963</v>
       </c>
       <c r="I214" t="n">
         <v>1</v>
@@ -16058,10 +15649,8 @@
           <t>3457304386</t>
         </is>
       </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:48:11</t>
-        </is>
+      <c r="H215" s="1" t="n">
+        <v>44079.53346064815</v>
       </c>
       <c r="I215" t="n">
         <v>1</v>
@@ -16137,10 +15726,8 @@
           <t>3457312667</t>
         </is>
       </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:48:06</t>
-        </is>
+      <c r="H216" s="1" t="n">
+        <v>44079.53340277778</v>
       </c>
       <c r="I216" t="n">
         <v>1</v>
@@ -16208,10 +15795,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:47:14</t>
-        </is>
+      <c r="H217" s="1" t="n">
+        <v>44079.53280092592</v>
       </c>
       <c r="I217" t="n">
         <v>8</v>
@@ -16287,10 +15872,8 @@
           <t>3457138977</t>
         </is>
       </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:47:09</t>
-        </is>
+      <c r="H218" s="1" t="n">
+        <v>44079.53274305556</v>
       </c>
       <c r="I218" t="n">
         <v>0</v>
@@ -16358,10 +15941,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:46:11</t>
-        </is>
+      <c r="H219" s="1" t="n">
+        <v>44079.53207175926</v>
       </c>
       <c r="I219" t="n">
         <v>1</v>
@@ -16429,10 +16010,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:45:57</t>
-        </is>
+      <c r="H220" s="1" t="n">
+        <v>44079.53190972222</v>
       </c>
       <c r="I220" t="n">
         <v>2</v>
@@ -16508,10 +16087,8 @@
           <t>3457299702</t>
         </is>
       </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:45:57</t>
-        </is>
+      <c r="H221" s="1" t="n">
+        <v>44079.53190972222</v>
       </c>
       <c r="I221" t="n">
         <v>0</v>
@@ -16583,10 +16160,8 @@
           <t>3457139768</t>
         </is>
       </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:44:59</t>
-        </is>
+      <c r="H222" s="1" t="n">
+        <v>44079.53123842592</v>
       </c>
       <c r="I222" t="n">
         <v>2</v>
@@ -16662,10 +16237,8 @@
           <t>3457293812</t>
         </is>
       </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:44:58</t>
-        </is>
+      <c r="H223" s="1" t="n">
+        <v>44079.53122685185</v>
       </c>
       <c r="I223" t="n">
         <v>0</v>
@@ -16729,10 +16302,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:44:53</t>
-        </is>
+      <c r="H224" s="1" t="n">
+        <v>44079.53116898148</v>
       </c>
       <c r="I224" t="n">
         <v>2</v>
@@ -16804,10 +16375,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:44:20</t>
-        </is>
+      <c r="H225" s="1" t="n">
+        <v>44079.53078703704</v>
       </c>
       <c r="I225" t="n">
         <v>2</v>
@@ -16871,10 +16440,8 @@
           <t>3457138977</t>
         </is>
       </c>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:44:03</t>
-        </is>
+      <c r="H226" s="1" t="n">
+        <v>44079.53059027778</v>
       </c>
       <c r="I226" t="n">
         <v>0</v>
@@ -16950,10 +16517,8 @@
           <t>3457138977</t>
         </is>
       </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:44:01</t>
-        </is>
+      <c r="H227" s="1" t="n">
+        <v>44079.53056712963</v>
       </c>
       <c r="I227" t="n">
         <v>0</v>
@@ -17029,10 +16594,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:42:36</t>
-        </is>
+      <c r="H228" s="1" t="n">
+        <v>44079.52958333334</v>
       </c>
       <c r="I228" t="n">
         <v>0</v>
@@ -17096,10 +16659,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:41:15</t>
-        </is>
+      <c r="H229" s="1" t="n">
+        <v>44079.52864583334</v>
       </c>
       <c r="I229" t="n">
         <v>4</v>
@@ -17167,10 +16728,8 @@
           <t>3457285134</t>
         </is>
       </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:41:10</t>
-        </is>
+      <c r="H230" s="1" t="n">
+        <v>44079.52858796297</v>
       </c>
       <c r="I230" t="n">
         <v>0</v>
@@ -17246,10 +16805,8 @@
           <t>3457202858</t>
         </is>
       </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:39:59</t>
-        </is>
+      <c r="H231" s="1" t="n">
+        <v>44079.5277662037</v>
       </c>
       <c r="I231" t="n">
         <v>2</v>
@@ -17317,10 +16874,8 @@
           <t>3457273443</t>
         </is>
       </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:39:53</t>
-        </is>
+      <c r="H232" s="1" t="n">
+        <v>44079.52769675926</v>
       </c>
       <c r="I232" t="n">
         <v>0</v>
@@ -17396,10 +16951,8 @@
           <t>3457272779</t>
         </is>
       </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:39:23</t>
-        </is>
+      <c r="H233" s="1" t="n">
+        <v>44079.52734953703</v>
       </c>
       <c r="I233" t="n">
         <v>0</v>
@@ -17475,10 +17028,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:37:02</t>
-        </is>
+      <c r="H234" s="1" t="n">
+        <v>44079.52571759259</v>
       </c>
       <c r="I234" t="n">
         <v>0</v>
@@ -17542,10 +17093,8 @@
           <t>3457262439</t>
         </is>
       </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:36:39</t>
-        </is>
+      <c r="H235" s="1" t="n">
+        <v>44079.52545138889</v>
       </c>
       <c r="I235" t="n">
         <v>0</v>
@@ -17621,10 +17170,8 @@
           <t>3457262226</t>
         </is>
       </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:36:30</t>
-        </is>
+      <c r="H236" s="1" t="n">
+        <v>44079.52534722222</v>
       </c>
       <c r="I236" t="n">
         <v>0</v>
@@ -17700,10 +17247,8 @@
           <t>3457266043</t>
         </is>
       </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:36:17</t>
-        </is>
+      <c r="H237" s="1" t="n">
+        <v>44079.52519675926</v>
       </c>
       <c r="I237" t="n">
         <v>0</v>
@@ -17779,10 +17324,8 @@
           <t>3457257480</t>
         </is>
       </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:35:23</t>
-        </is>
+      <c r="H238" s="1" t="n">
+        <v>44079.52457175926</v>
       </c>
       <c r="I238" t="n">
         <v>7</v>
@@ -17858,10 +17401,8 @@
           <t>3457249741</t>
         </is>
       </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:34:41</t>
-        </is>
+      <c r="H239" s="1" t="n">
+        <v>44079.52408564815</v>
       </c>
       <c r="I239" t="n">
         <v>0</v>
@@ -17937,10 +17478,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:34:26</t>
-        </is>
+      <c r="H240" s="1" t="n">
+        <v>44079.52391203704</v>
       </c>
       <c r="I240" t="n">
         <v>0</v>
@@ -18008,10 +17547,8 @@
           <t>3457253368</t>
         </is>
       </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:34:21</t>
-        </is>
+      <c r="H241" s="1" t="n">
+        <v>44079.52385416667</v>
       </c>
       <c r="I241" t="n">
         <v>0</v>
@@ -18079,10 +17616,8 @@
           <t>3457138977</t>
         </is>
       </c>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:33:34</t>
-        </is>
+      <c r="H242" s="1" t="n">
+        <v>44079.52331018518</v>
       </c>
       <c r="I242" t="n">
         <v>2</v>
@@ -18158,10 +17693,8 @@
           <t>3457137880</t>
         </is>
       </c>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:33:10</t>
-        </is>
+      <c r="H243" s="1" t="n">
+        <v>44079.52303240741</v>
       </c>
       <c r="I243" t="n">
         <v>1</v>
@@ -18237,10 +17770,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:33:05</t>
-        </is>
+      <c r="H244" s="1" t="n">
+        <v>44079.52297453704</v>
       </c>
       <c r="I244" t="n">
         <v>0</v>
@@ -18308,10 +17839,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H245" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:32:04</t>
-        </is>
+      <c r="H245" s="1" t="n">
+        <v>44079.52226851852</v>
       </c>
       <c r="I245" t="n">
         <v>0</v>
@@ -18375,10 +17904,8 @@
           <t>3457138977</t>
         </is>
       </c>
-      <c r="H246" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:32:00</t>
-        </is>
+      <c r="H246" s="1" t="n">
+        <v>44079.52222222222</v>
       </c>
       <c r="I246" t="n">
         <v>2</v>
@@ -18454,10 +17981,8 @@
           <t>3457138977</t>
         </is>
       </c>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:31:36</t>
-        </is>
+      <c r="H247" s="1" t="n">
+        <v>44079.52194444444</v>
       </c>
       <c r="I247" t="n">
         <v>1</v>
@@ -18525,10 +18050,8 @@
           <t>3457245021</t>
         </is>
       </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:31:12</t>
-        </is>
+      <c r="H248" s="1" t="n">
+        <v>44079.52166666667</v>
       </c>
       <c r="I248" t="n">
         <v>0</v>
@@ -18596,10 +18119,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:30:01</t>
-        </is>
+      <c r="H249" s="1" t="n">
+        <v>44079.52084490741</v>
       </c>
       <c r="I249" t="n">
         <v>0</v>
@@ -18667,10 +18188,8 @@
           <t>3457139768</t>
         </is>
       </c>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:29:08</t>
-        </is>
+      <c r="H250" s="1" t="n">
+        <v>44079.52023148148</v>
       </c>
       <c r="I250" t="n">
         <v>1</v>
@@ -18739,10 +18258,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H251" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:29:02</t>
-        </is>
+      <c r="H251" s="1" t="n">
+        <v>44079.52016203704</v>
       </c>
       <c r="I251" t="n">
         <v>1</v>
@@ -18814,10 +18331,8 @@
           <t>3457224453</t>
         </is>
       </c>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:27:58</t>
-        </is>
+      <c r="H252" s="1" t="n">
+        <v>44079.5194212963</v>
       </c>
       <c r="I252" t="n">
         <v>9</v>
@@ -18894,10 +18409,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:27:41</t>
-        </is>
+      <c r="H253" s="1" t="n">
+        <v>44079.51922453703</v>
       </c>
       <c r="I253" t="n">
         <v>0</v>
@@ -18961,10 +18474,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:26:37</t>
-        </is>
+      <c r="H254" s="1" t="n">
+        <v>44079.5184837963</v>
       </c>
       <c r="I254" t="n">
         <v>0</v>
@@ -19040,10 +18551,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:26:31</t>
-        </is>
+      <c r="H255" s="1" t="n">
+        <v>44079.51841435185</v>
       </c>
       <c r="I255" t="n">
         <v>1</v>
@@ -19107,10 +18616,8 @@
           <t>3457218424</t>
         </is>
       </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:26:15</t>
-        </is>
+      <c r="H256" s="1" t="n">
+        <v>44079.51822916666</v>
       </c>
       <c r="I256" t="n">
         <v>0</v>
@@ -19174,10 +18681,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H257" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:26:09</t>
-        </is>
+      <c r="H257" s="1" t="n">
+        <v>44079.51815972223</v>
       </c>
       <c r="I257" t="n">
         <v>1</v>
@@ -19253,10 +18758,8 @@
           <t>3457137880</t>
         </is>
       </c>
-      <c r="H258" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:25:40</t>
-        </is>
+      <c r="H258" s="1" t="n">
+        <v>44079.51782407407</v>
       </c>
       <c r="I258" t="n">
         <v>33</v>
@@ -19324,10 +18827,8 @@
           <t>3457217172</t>
         </is>
       </c>
-      <c r="H259" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:25:21</t>
-        </is>
+      <c r="H259" s="1" t="n">
+        <v>44079.51760416666</v>
       </c>
       <c r="I259" t="n">
         <v>10</v>
@@ -19395,10 +18896,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H260" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:25:07</t>
-        </is>
+      <c r="H260" s="1" t="n">
+        <v>44079.51744212963</v>
       </c>
       <c r="I260" t="n">
         <v>22</v>
@@ -19466,10 +18965,8 @@
           <t>3457211790</t>
         </is>
       </c>
-      <c r="H261" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:23:36</t>
-        </is>
+      <c r="H261" s="1" t="n">
+        <v>44079.51638888889</v>
       </c>
       <c r="I261" t="n">
         <v>0</v>
@@ -19537,10 +19034,8 @@
           <t>3457202858</t>
         </is>
       </c>
-      <c r="H262" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:22:09</t>
-        </is>
+      <c r="H262" s="1" t="n">
+        <v>44079.51538194445</v>
       </c>
       <c r="I262" t="n">
         <v>37</v>
@@ -19612,10 +19107,8 @@
           <t>3457201090</t>
         </is>
       </c>
-      <c r="H263" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:20:47</t>
-        </is>
+      <c r="H263" s="1" t="n">
+        <v>44079.51443287037</v>
       </c>
       <c r="I263" t="n">
         <v>2</v>
@@ -19687,10 +19180,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H264" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:20:19</t>
-        </is>
+      <c r="H264" s="1" t="n">
+        <v>44079.5141087963</v>
       </c>
       <c r="I264" t="n">
         <v>96</v>
@@ -19769,10 +19260,8 @@
           <t>3457188955</t>
         </is>
       </c>
-      <c r="H265" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:19:12</t>
-        </is>
+      <c r="H265" s="1" t="n">
+        <v>44079.51333333334</v>
       </c>
       <c r="I265" t="n">
         <v>3</v>
@@ -19840,10 +19329,8 @@
           <t>3457137880</t>
         </is>
       </c>
-      <c r="H266" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:19:10</t>
-        </is>
+      <c r="H266" s="1" t="n">
+        <v>44079.51331018518</v>
       </c>
       <c r="I266" t="n">
         <v>3</v>
@@ -19911,10 +19398,8 @@
           <t>3457163944</t>
         </is>
       </c>
-      <c r="H267" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:18:40</t>
-        </is>
+      <c r="H267" s="1" t="n">
+        <v>44079.51296296297</v>
       </c>
       <c r="I267" t="n">
         <v>1</v>
@@ -19982,10 +19467,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:18:33</t>
-        </is>
+      <c r="H268" s="1" t="n">
+        <v>44079.51288194444</v>
       </c>
       <c r="I268" t="n">
         <v>0</v>
@@ -20053,10 +19536,8 @@
           <t>3457191252</t>
         </is>
       </c>
-      <c r="H269" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:18:23</t>
-        </is>
+      <c r="H269" s="1" t="n">
+        <v>44079.5127662037</v>
       </c>
       <c r="I269" t="n">
         <v>0</v>
@@ -20132,10 +19613,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H270" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:17:11</t>
-        </is>
+      <c r="H270" s="1" t="n">
+        <v>44079.51193287037</v>
       </c>
       <c r="I270" t="n">
         <v>2</v>
@@ -20211,10 +19690,8 @@
           <t>3457183320</t>
         </is>
       </c>
-      <c r="H271" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:17:09</t>
-        </is>
+      <c r="H271" s="1" t="n">
+        <v>44079.51190972222</v>
       </c>
       <c r="I271" t="n">
         <v>8</v>
@@ -20283,10 +19760,8 @@
           <t>3457163944</t>
         </is>
       </c>
-      <c r="H272" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:16:52</t>
-        </is>
+      <c r="H272" s="1" t="n">
+        <v>44079.51171296297</v>
       </c>
       <c r="I272" t="n">
         <v>0</v>
@@ -20362,10 +19837,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H273" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:16:29</t>
-        </is>
+      <c r="H273" s="1" t="n">
+        <v>44079.51144675926</v>
       </c>
       <c r="I273" t="n">
         <v>2</v>
@@ -20429,10 +19902,8 @@
           <t>3457137880</t>
         </is>
       </c>
-      <c r="H274" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:16:19</t>
-        </is>
+      <c r="H274" s="1" t="n">
+        <v>44079.51133101852</v>
       </c>
       <c r="I274" t="n">
         <v>16</v>
@@ -20496,10 +19967,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H275" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:14:51</t>
-        </is>
+      <c r="H275" s="1" t="n">
+        <v>44079.5103125</v>
       </c>
       <c r="I275" t="n">
         <v>1</v>
@@ -20567,10 +20036,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H276" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:14:51</t>
-        </is>
+      <c r="H276" s="1" t="n">
+        <v>44079.5103125</v>
       </c>
       <c r="I276" t="n">
         <v>0</v>
@@ -20638,10 +20105,8 @@
           <t>3457137880</t>
         </is>
       </c>
-      <c r="H277" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:14:36</t>
-        </is>
+      <c r="H277" s="1" t="n">
+        <v>44079.51013888889</v>
       </c>
       <c r="I277" t="n">
         <v>0</v>
@@ -20705,10 +20170,8 @@
           <t>3457163944</t>
         </is>
       </c>
-      <c r="H278" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:13:36</t>
-        </is>
+      <c r="H278" s="1" t="n">
+        <v>44079.50944444445</v>
       </c>
       <c r="I278" t="n">
         <v>0</v>
@@ -20776,10 +20239,8 @@
           <t>3457168528</t>
         </is>
       </c>
-      <c r="H279" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:13:32</t>
-        </is>
+      <c r="H279" s="1" t="n">
+        <v>44079.50939814815</v>
       </c>
       <c r="I279" t="n">
         <v>8</v>
@@ -20855,10 +20316,8 @@
           <t>3457164067</t>
         </is>
       </c>
-      <c r="H280" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:13:14</t>
-        </is>
+      <c r="H280" s="1" t="n">
+        <v>44079.50918981482</v>
       </c>
       <c r="I280" t="n">
         <v>36</v>
@@ -20926,10 +20385,8 @@
           <t>3457163944</t>
         </is>
       </c>
-      <c r="H281" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:13:08</t>
-        </is>
+      <c r="H281" s="1" t="n">
+        <v>44079.50912037037</v>
       </c>
       <c r="I281" t="n">
         <v>0</v>
@@ -21005,10 +20462,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H282" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:12:51</t>
-        </is>
+      <c r="H282" s="1" t="n">
+        <v>44079.50892361111</v>
       </c>
       <c r="I282" t="n">
         <v>0</v>
@@ -21080,10 +20535,8 @@
           <t>3457137880</t>
         </is>
       </c>
-      <c r="H283" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:12:49</t>
-        </is>
+      <c r="H283" s="1" t="n">
+        <v>44079.50890046296</v>
       </c>
       <c r="I283" t="n">
         <v>0</v>
@@ -21159,10 +20612,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H284" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:12:48</t>
-        </is>
+      <c r="H284" s="1" t="n">
+        <v>44079.50888888889</v>
       </c>
       <c r="I284" t="n">
         <v>0</v>
@@ -21230,10 +20681,8 @@
           <t>3457161278</t>
         </is>
       </c>
-      <c r="H285" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:12:18</t>
-        </is>
+      <c r="H285" s="1" t="n">
+        <v>44079.50854166667</v>
       </c>
       <c r="I285" t="n">
         <v>0</v>
@@ -21305,10 +20754,8 @@
           <t>3457119593</t>
         </is>
       </c>
-      <c r="H286" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:11:58</t>
-        </is>
+      <c r="H286" s="1" t="n">
+        <v>44079.50831018519</v>
       </c>
       <c r="I286" t="n">
         <v>29</v>
@@ -21380,10 +20827,8 @@
           <t>3457161278</t>
         </is>
       </c>
-      <c r="H287" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:11:58</t>
-        </is>
+      <c r="H287" s="1" t="n">
+        <v>44079.50831018519</v>
       </c>
       <c r="I287" t="n">
         <v>0</v>
@@ -21455,10 +20900,8 @@
           <t>3457161278</t>
         </is>
       </c>
-      <c r="H288" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:11:46</t>
-        </is>
+      <c r="H288" s="1" t="n">
+        <v>44079.50817129629</v>
       </c>
       <c r="I288" t="n">
         <v>0</v>
@@ -21526,10 +20969,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H289" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:11:44</t>
-        </is>
+      <c r="H289" s="1" t="n">
+        <v>44079.50814814815</v>
       </c>
       <c r="I289" t="n">
         <v>0</v>
@@ -21589,10 +21030,8 @@
           <t>3457161278</t>
         </is>
       </c>
-      <c r="H290" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:11:16</t>
-        </is>
+      <c r="H290" s="1" t="n">
+        <v>44079.50782407408</v>
       </c>
       <c r="I290" t="n">
         <v>0</v>
@@ -21664,10 +21103,8 @@
           <t>3457165508</t>
         </is>
       </c>
-      <c r="H291" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:11:14</t>
-        </is>
+      <c r="H291" s="1" t="n">
+        <v>44079.50780092592</v>
       </c>
       <c r="I291" t="n">
         <v>0</v>
@@ -21743,10 +21180,8 @@
           <t>3457137880</t>
         </is>
       </c>
-      <c r="H292" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:11:11</t>
-        </is>
+      <c r="H292" s="1" t="n">
+        <v>44079.5077662037</v>
       </c>
       <c r="I292" t="n">
         <v>1</v>
@@ -21810,10 +21245,8 @@
           <t>3457137880</t>
         </is>
       </c>
-      <c r="H293" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:10:58</t>
-        </is>
+      <c r="H293" s="1" t="n">
+        <v>44079.50761574074</v>
       </c>
       <c r="I293" t="n">
         <v>0</v>
@@ -21889,10 +21322,8 @@
           <t>3457135026</t>
         </is>
       </c>
-      <c r="H294" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:10:49</t>
-        </is>
+      <c r="H294" s="1" t="n">
+        <v>44079.50751157408</v>
       </c>
       <c r="I294" t="n">
         <v>4</v>
@@ -21964,10 +21395,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H295" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:10:41</t>
-        </is>
+      <c r="H295" s="1" t="n">
+        <v>44079.50741898148</v>
       </c>
       <c r="I295" t="n">
         <v>1</v>
@@ -22043,10 +21472,8 @@
           <t>3457137880</t>
         </is>
       </c>
-      <c r="H296" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:10:35</t>
-        </is>
+      <c r="H296" s="1" t="n">
+        <v>44079.50734953704</v>
       </c>
       <c r="I296" t="n">
         <v>2</v>
@@ -22122,10 +21549,8 @@
           <t>3457137880</t>
         </is>
       </c>
-      <c r="H297" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:10:31</t>
-        </is>
+      <c r="H297" s="1" t="n">
+        <v>44079.50730324074</v>
       </c>
       <c r="I297" t="n">
         <v>0</v>
@@ -22202,10 +21627,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H298" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:10:26</t>
-        </is>
+      <c r="H298" s="1" t="n">
+        <v>44079.50724537037</v>
       </c>
       <c r="I298" t="n">
         <v>9</v>
@@ -22281,10 +21704,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H299" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:10:16</t>
-        </is>
+      <c r="H299" s="1" t="n">
+        <v>44079.50712962963</v>
       </c>
       <c r="I299" t="n">
         <v>0</v>
@@ -22355,10 +21776,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H300" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:09:50</t>
-        </is>
+      <c r="H300" s="1" t="n">
+        <v>44079.50682870371</v>
       </c>
       <c r="I300" t="n">
         <v>0</v>
@@ -22430,10 +21849,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H301" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:09:30</t>
-        </is>
+      <c r="H301" s="1" t="n">
+        <v>44079.50659722222</v>
       </c>
       <c r="I301" t="n">
         <v>0</v>
@@ -22497,10 +21914,8 @@
           <t>3457137880</t>
         </is>
       </c>
-      <c r="H302" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:09:25</t>
-        </is>
+      <c r="H302" s="1" t="n">
+        <v>44079.50653935185</v>
       </c>
       <c r="I302" t="n">
         <v>1</v>
@@ -22564,10 +21979,8 @@
           <t>3457152466</t>
         </is>
       </c>
-      <c r="H303" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:09:01</t>
-        </is>
+      <c r="H303" s="1" t="n">
+        <v>44079.50626157408</v>
       </c>
       <c r="I303" t="n">
         <v>0</v>
@@ -22631,10 +22044,8 @@
           <t>3457144079</t>
         </is>
       </c>
-      <c r="H304" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:08:15</t>
-        </is>
+      <c r="H304" s="1" t="n">
+        <v>44079.50572916667</v>
       </c>
       <c r="I304" t="n">
         <v>4</v>
@@ -22698,10 +22109,8 @@
           <t>3457150631</t>
         </is>
       </c>
-      <c r="H305" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:07:41</t>
-        </is>
+      <c r="H305" s="1" t="n">
+        <v>44079.50533564815</v>
       </c>
       <c r="I305" t="n">
         <v>0</v>
@@ -22769,10 +22178,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H306" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:07:04</t>
-        </is>
+      <c r="H306" s="1" t="n">
+        <v>44079.5049074074</v>
       </c>
       <c r="I306" t="n">
         <v>1</v>
@@ -22848,10 +22255,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H307" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:07:04</t>
-        </is>
+      <c r="H307" s="1" t="n">
+        <v>44079.5049074074</v>
       </c>
       <c r="I307" t="n">
         <v>0</v>
@@ -22927,10 +22332,8 @@
           <t>3457139768</t>
         </is>
       </c>
-      <c r="H308" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:07:03</t>
-        </is>
+      <c r="H308" s="1" t="n">
+        <v>44079.50489583334</v>
       </c>
       <c r="I308" t="n">
         <v>0</v>
@@ -23006,10 +22409,8 @@
           <t>3457138977</t>
         </is>
       </c>
-      <c r="H309" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:06:29</t>
-        </is>
+      <c r="H309" s="1" t="n">
+        <v>44079.50450231481</v>
       </c>
       <c r="I309" t="n">
         <v>0</v>
@@ -23085,10 +22486,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H310" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:06:19</t>
-        </is>
+      <c r="H310" s="1" t="n">
+        <v>44079.50438657407</v>
       </c>
       <c r="I310" t="n">
         <v>40</v>
@@ -23156,10 +22555,8 @@
           <t>3457137880</t>
         </is>
       </c>
-      <c r="H311" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:05:42</t>
-        </is>
+      <c r="H311" s="1" t="n">
+        <v>44079.50395833333</v>
       </c>
       <c r="I311" t="n">
         <v>0</v>
@@ -23235,10 +22632,8 @@
           <t>3457135026</t>
         </is>
       </c>
-      <c r="H312" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:05:36</t>
-        </is>
+      <c r="H312" s="1" t="n">
+        <v>44079.50388888889</v>
       </c>
       <c r="I312" t="n">
         <v>17</v>
@@ -23315,10 +22710,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H313" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:05:25</t>
-        </is>
+      <c r="H313" s="1" t="n">
+        <v>44079.50376157407</v>
       </c>
       <c r="I313" t="n">
         <v>0</v>
@@ -23394,10 +22787,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H314" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:05:18</t>
-        </is>
+      <c r="H314" s="1" t="n">
+        <v>44079.50368055556</v>
       </c>
       <c r="I314" t="n">
         <v>162</v>
@@ -23473,10 +22864,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H315" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:05:01</t>
-        </is>
+      <c r="H315" s="1" t="n">
+        <v>44079.5034837963</v>
       </c>
       <c r="I315" t="n">
         <v>0</v>
@@ -23552,10 +22941,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H316" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:04:54</t>
-        </is>
+      <c r="H316" s="1" t="n">
+        <v>44079.50340277778</v>
       </c>
       <c r="I316" t="n">
         <v>0</v>
@@ -23615,10 +23002,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H317" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:04:42</t>
-        </is>
+      <c r="H317" s="1" t="n">
+        <v>44079.50326388889</v>
       </c>
       <c r="I317" t="n">
         <v>0</v>
@@ -23690,10 +23075,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H318" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:04:34</t>
-        </is>
+      <c r="H318" s="1" t="n">
+        <v>44079.5031712963</v>
       </c>
       <c r="I318" t="n">
         <v>0</v>
@@ -23757,10 +23140,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H319" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:04:19</t>
-        </is>
+      <c r="H319" s="1" t="n">
+        <v>44079.50299768519</v>
       </c>
       <c r="I319" t="n">
         <v>2</v>
@@ -23832,10 +23213,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H320" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:04:13</t>
-        </is>
+      <c r="H320" s="1" t="n">
+        <v>44079.50292824074</v>
       </c>
       <c r="I320" t="n">
         <v>1</v>
@@ -23911,10 +23290,8 @@
           <t>3457128217</t>
         </is>
       </c>
-      <c r="H321" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:04:02</t>
-        </is>
+      <c r="H321" s="1" t="n">
+        <v>44079.50280092593</v>
       </c>
       <c r="I321" t="n">
         <v>0</v>
@@ -23990,10 +23367,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H322" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:04:00</t>
-        </is>
+      <c r="H322" s="1" t="n">
+        <v>44079.50277777778</v>
       </c>
       <c r="I322" t="n">
         <v>7</v>
@@ -24061,10 +23436,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H323" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:03:44</t>
-        </is>
+      <c r="H323" s="1" t="n">
+        <v>44079.50259259259</v>
       </c>
       <c r="I323" t="n">
         <v>1</v>
@@ -24140,10 +23513,8 @@
           <t>3457135026</t>
         </is>
       </c>
-      <c r="H324" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:03:34</t>
-        </is>
+      <c r="H324" s="1" t="n">
+        <v>44079.50247685185</v>
       </c>
       <c r="I324" t="n">
         <v>12</v>
@@ -24215,10 +23586,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H325" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:03:33</t>
-        </is>
+      <c r="H325" s="1" t="n">
+        <v>44079.50246527778</v>
       </c>
       <c r="I325" t="n">
         <v>0</v>
@@ -24290,10 +23659,8 @@
           <t>3457127304</t>
         </is>
       </c>
-      <c r="H326" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:03:22</t>
-        </is>
+      <c r="H326" s="1" t="n">
+        <v>44079.50233796296</v>
       </c>
       <c r="I326" t="n">
         <v>0</v>
@@ -24369,10 +23736,8 @@
           <t>3457127311</t>
         </is>
       </c>
-      <c r="H327" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:03:22</t>
-        </is>
+      <c r="H327" s="1" t="n">
+        <v>44079.50233796296</v>
       </c>
       <c r="I327" t="n">
         <v>0</v>
@@ -24448,10 +23813,8 @@
           <t>3457119593</t>
         </is>
       </c>
-      <c r="H328" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:03:16</t>
-        </is>
+      <c r="H328" s="1" t="n">
+        <v>44079.50226851852</v>
       </c>
       <c r="I328" t="n">
         <v>23</v>
@@ -24527,10 +23890,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H329" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:02:56</t>
-        </is>
+      <c r="H329" s="1" t="n">
+        <v>44079.50203703704</v>
       </c>
       <c r="I329" t="n">
         <v>2</v>
@@ -24602,10 +23963,8 @@
           <t>3457119090</t>
         </is>
       </c>
-      <c r="H330" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:02:55</t>
-        </is>
+      <c r="H330" s="1" t="n">
+        <v>44079.50202546296</v>
       </c>
       <c r="I330" t="n">
         <v>1</v>
@@ -24673,10 +24032,8 @@
           <t>3457118864</t>
         </is>
       </c>
-      <c r="H331" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:02:45</t>
-        </is>
+      <c r="H331" s="1" t="n">
+        <v>44079.50190972222</v>
       </c>
       <c r="I331" t="n">
         <v>51</v>
@@ -24748,10 +24105,8 @@
           <t>3457118814</t>
         </is>
       </c>
-      <c r="H332" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:02:43</t>
-        </is>
+      <c r="H332" s="1" t="n">
+        <v>44079.50188657407</v>
       </c>
       <c r="I332" t="n">
         <v>37</v>
@@ -24827,10 +24182,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H333" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:02:42</t>
-        </is>
+      <c r="H333" s="1" t="n">
+        <v>44079.501875</v>
       </c>
       <c r="I333" t="n">
         <v>21</v>
@@ -24898,10 +24251,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H334" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:02:39</t>
-        </is>
+      <c r="H334" s="1" t="n">
+        <v>44079.50184027778</v>
       </c>
       <c r="I334" t="n">
         <v>206</v>
@@ -24969,10 +24320,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H335" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:02:28</t>
-        </is>
+      <c r="H335" s="1" t="n">
+        <v>44079.50171296296</v>
       </c>
       <c r="I335" t="n">
         <v>0</v>
@@ -25038,10 +24387,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H336" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:02:20</t>
-        </is>
+      <c r="H336" s="1" t="n">
+        <v>44079.50162037037</v>
       </c>
       <c r="I336" t="n">
         <v>2</v>
@@ -25113,10 +24460,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H337" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:02:17</t>
-        </is>
+      <c r="H337" s="1" t="n">
+        <v>44079.50158564815</v>
       </c>
       <c r="I337" t="n">
         <v>11</v>
@@ -25192,10 +24537,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H338" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:02:05</t>
-        </is>
+      <c r="H338" s="1" t="n">
+        <v>44079.50144675926</v>
       </c>
       <c r="I338" t="n">
         <v>1</v>
@@ -25259,10 +24602,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H339" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:02:00</t>
-        </is>
+      <c r="H339" s="1" t="n">
+        <v>44079.50138888889</v>
       </c>
       <c r="I339" t="n">
         <v>576</v>
@@ -25339,10 +24680,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H340" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:01:59</t>
-        </is>
+      <c r="H340" s="1" t="n">
+        <v>44079.50137731482</v>
       </c>
       <c r="I340" t="n">
         <v>184</v>
@@ -25410,10 +24749,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H341" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:01:57</t>
-        </is>
+      <c r="H341" s="1" t="n">
+        <v>44079.50135416666</v>
       </c>
       <c r="I341" t="n">
         <v>125</v>
@@ -25485,10 +24822,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H342" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:01:57</t>
-        </is>
+      <c r="H342" s="1" t="n">
+        <v>44079.50135416666</v>
       </c>
       <c r="I342" t="n">
         <v>0</v>
@@ -25564,10 +24899,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H343" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:01:54</t>
-        </is>
+      <c r="H343" s="1" t="n">
+        <v>44079.50131944445</v>
       </c>
       <c r="I343" t="n">
         <v>204</v>
@@ -25631,10 +24964,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H344" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:01:45</t>
-        </is>
+      <c r="H344" s="1" t="n">
+        <v>44079.50121527778</v>
       </c>
       <c r="I344" t="n">
         <v>0</v>
@@ -25698,10 +25029,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H345" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:01:37</t>
-        </is>
+      <c r="H345" s="1" t="n">
+        <v>44079.50112268519</v>
       </c>
       <c r="I345" t="n">
         <v>148</v>
@@ -25761,10 +25090,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H346" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:01:25</t>
-        </is>
+      <c r="H346" s="1" t="n">
+        <v>44079.50098379629</v>
       </c>
       <c r="I346" t="n">
         <v>1</v>
@@ -25836,10 +25163,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H347" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:01:23</t>
-        </is>
+      <c r="H347" s="1" t="n">
+        <v>44079.50096064815</v>
       </c>
       <c r="I347" t="n">
         <v>4</v>
@@ -25911,10 +25236,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H348" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:01:17</t>
-        </is>
+      <c r="H348" s="1" t="n">
+        <v>44079.5008912037</v>
       </c>
       <c r="I348" t="n">
         <v>2</v>
@@ -25983,10 +25306,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H349" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:01:10</t>
-        </is>
+      <c r="H349" s="1" t="n">
+        <v>44079.50081018519</v>
       </c>
       <c r="I349" t="n">
         <v>6</v>
@@ -26046,10 +25367,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H350" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:01:09</t>
-        </is>
+      <c r="H350" s="1" t="n">
+        <v>44079.50079861111</v>
       </c>
       <c r="I350" t="n">
         <v>0</v>
@@ -26117,10 +25436,8 @@
           <t>3457116555</t>
         </is>
       </c>
-      <c r="H351" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:01:09</t>
-        </is>
+      <c r="H351" s="1" t="n">
+        <v>44079.50079861111</v>
       </c>
       <c r="I351" t="n">
         <v>0</v>
@@ -26192,10 +25509,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H352" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:01:07</t>
-        </is>
+      <c r="H352" s="1" t="n">
+        <v>44079.50077546296</v>
       </c>
       <c r="I352" t="n">
         <v>0</v>
@@ -26267,10 +25582,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H353" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:01:06</t>
-        </is>
+      <c r="H353" s="1" t="n">
+        <v>44079.50076388889</v>
       </c>
       <c r="I353" t="n">
         <v>0</v>
@@ -26338,10 +25651,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H354" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:01:05</t>
-        </is>
+      <c r="H354" s="1" t="n">
+        <v>44079.50075231482</v>
       </c>
       <c r="I354" t="n">
         <v>0</v>
@@ -26401,10 +25712,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H355" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:01:03</t>
-        </is>
+      <c r="H355" s="1" t="n">
+        <v>44079.50072916667</v>
       </c>
       <c r="I355" t="n">
         <v>0</v>
@@ -26464,10 +25773,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H356" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:00:55</t>
-        </is>
+      <c r="H356" s="1" t="n">
+        <v>44079.50063657408</v>
       </c>
       <c r="I356" t="n">
         <v>0</v>
@@ -26539,10 +25846,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H357" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:00:51</t>
-        </is>
+      <c r="H357" s="1" t="n">
+        <v>44079.50059027778</v>
       </c>
       <c r="I357" t="n">
         <v>1</v>
@@ -26610,10 +25915,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H358" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:00:47</t>
-        </is>
+      <c r="H358" s="1" t="n">
+        <v>44079.50054398148</v>
       </c>
       <c r="I358" t="n">
         <v>0</v>
@@ -26689,10 +25992,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H359" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:00:47</t>
-        </is>
+      <c r="H359" s="1" t="n">
+        <v>44079.50054398148</v>
       </c>
       <c r="I359" t="n">
         <v>0</v>
@@ -26761,10 +26062,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H360" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:00:45</t>
-        </is>
+      <c r="H360" s="1" t="n">
+        <v>44079.50052083333</v>
       </c>
       <c r="I360" t="n">
         <v>0</v>
@@ -26828,10 +26127,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H361" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:00:40</t>
-        </is>
+      <c r="H361" s="1" t="n">
+        <v>44079.50046296296</v>
       </c>
       <c r="I361" t="n">
         <v>490</v>
@@ -26907,10 +26204,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H362" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:00:37</t>
-        </is>
+      <c r="H362" s="1" t="n">
+        <v>44079.50042824074</v>
       </c>
       <c r="I362" t="n">
         <v>471</v>
@@ -26978,10 +26273,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H363" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:00:23</t>
-        </is>
+      <c r="H363" s="1" t="n">
+        <v>44079.5002662037</v>
       </c>
       <c r="I363" t="n">
         <v>14</v>
@@ -27057,10 +26350,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H364" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:00:18</t>
-        </is>
+      <c r="H364" s="1" t="n">
+        <v>44079.50020833333</v>
       </c>
       <c r="I364" t="n">
         <v>1</v>
